--- a/BDD/bdd.xlsx
+++ b/BDD/bdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian\github\projetfinalphp\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian\github\php\projetfinalphp\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066D8D17-495A-4FA6-9995-AD704EB7253C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF271A-3842-42E3-A928-002BB4699DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2205" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15360" yWindow="4440" windowWidth="14520" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>user</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>events</t>
-  </si>
-  <si>
-    <t>achats</t>
   </si>
   <si>
     <t>permissions</t>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +470,12 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -497,6 +494,9 @@
       <c r="F2">
         <v>1234</v>
       </c>
+      <c r="H2">
+        <v>2001</v>
+      </c>
       <c r="I2">
         <v>2</v>
       </c>
@@ -506,11 +506,8 @@
       <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -533,22 +530,19 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -582,16 +576,13 @@
       <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -602,30 +593,30 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -642,20 +633,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>44382</v>
@@ -664,36 +655,36 @@
         <v>44382</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
